--- a/data/trans_orig/P33_1_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17FF908E-414B-45B1-BD62-C28731A10C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF579105-CDC2-41A7-BE6D-9374CD6D7B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9DBEA3F8-ED3C-4AFA-B61A-85BE6A0621D3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AD0E0F7B-2512-45E9-B58F-E2BF2FD40D10}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -77,718 +77,718 @@
     <t>1,31%</t>
   </si>
   <si>
-    <t>5,0%</t>
+    <t>4,91%</t>
   </si>
   <si>
     <t>2,3%</t>
   </si>
   <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>Menos</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>Menos</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,87%</t>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
   </si>
   <si>
     <t>10,97%</t>
   </si>
   <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
   </si>
   <si>
     <t>13,43%</t>
   </si>
   <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
   </si>
   <si>
     <t>12,21%</t>
   </si>
   <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
   </si>
   <si>
     <t>88,52%</t>
   </si>
   <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
   </si>
   <si>
     <t>85,37%</t>
   </si>
   <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
   </si>
   <si>
     <t>86,94%</t>
   </si>
   <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
     <t>1,86%</t>
   </si>
   <si>
     <t>2,36%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
   </si>
   <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>1,62%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
   </si>
   <si>
     <t>24,73%</t>
   </si>
   <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
   </si>
   <si>
     <t>31,82%</t>
   </si>
   <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
   </si>
   <si>
     <t>28,48%</t>
   </si>
   <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
   </si>
   <si>
     <t>73,84%</t>
   </si>
   <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
   </si>
   <si>
     <t>65,83%</t>
   </si>
   <si>
-    <t>58,68%</t>
+    <t>58,43%</t>
   </si>
   <si>
     <t>68,39%</t>
@@ -797,10 +797,10 @@
     <t>69,6%</t>
   </si>
   <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1215,7 +1215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68344846-0810-4C80-9F58-4AF3CEF41230}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA96DF1-A021-47B2-9129-4D50D0041349}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1784,10 +1784,10 @@
         <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,13 +1802,13 @@
         <v>85075</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>186</v>
@@ -1817,13 +1817,13 @@
         <v>118623</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>287</v>
@@ -1832,13 +1832,13 @@
         <v>203697</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1853,13 +1853,13 @@
         <v>228665</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>332</v>
@@ -1868,13 +1868,13 @@
         <v>242897</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>579</v>
@@ -1883,13 +1883,13 @@
         <v>471562</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1945,7 +1945,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1957,13 +1957,13 @@
         <v>5983</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -1972,13 +1972,13 @@
         <v>17214</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>39</v>
@@ -1987,13 +1987,13 @@
         <v>23196</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2008,13 +2008,13 @@
         <v>88543</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>230</v>
@@ -2023,13 +2023,13 @@
         <v>148319</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>314</v>
@@ -2038,13 +2038,13 @@
         <v>236862</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,13 +2059,13 @@
         <v>222175</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>303</v>
@@ -2074,13 +2074,13 @@
         <v>242873</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>494</v>
@@ -2089,13 +2089,13 @@
         <v>465047</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2151,7 +2151,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2163,13 +2163,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -2178,13 +2178,13 @@
         <v>1274</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -2193,13 +2193,13 @@
         <v>1274</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2214,13 +2214,13 @@
         <v>69667</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>237</v>
@@ -2229,13 +2229,13 @@
         <v>104198</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>344</v>
@@ -2244,13 +2244,13 @@
         <v>173864</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2265,13 +2265,13 @@
         <v>127081</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>251</v>
@@ -2280,13 +2280,13 @@
         <v>126080</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>423</v>
@@ -2295,13 +2295,13 @@
         <v>253160</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,7 +2357,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2369,13 +2369,13 @@
         <v>1013</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -2384,13 +2384,13 @@
         <v>1332</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -2399,13 +2399,13 @@
         <v>2345</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2420,13 +2420,13 @@
         <v>67052</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H25" s="7">
         <v>191</v>
@@ -2435,13 +2435,13 @@
         <v>97092</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>297</v>
@@ -2450,13 +2450,13 @@
         <v>164144</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2471,13 +2471,13 @@
         <v>209158</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>265</v>
@@ -2486,13 +2486,13 @@
         <v>176822</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>528</v>
@@ -2501,13 +2501,13 @@
         <v>385980</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2563,7 +2563,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2575,13 +2575,13 @@
         <v>9584</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H28" s="7">
         <v>23</v>
@@ -2590,13 +2590,13 @@
         <v>14500</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>184</v>
+        <v>71</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="M28" s="7">
         <v>35</v>
@@ -2605,13 +2605,13 @@
         <v>24084</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,13 +2626,13 @@
         <v>214916</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H29" s="7">
         <v>370</v>
@@ -2641,13 +2641,13 @@
         <v>374323</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M29" s="7">
         <v>581</v>
@@ -2656,13 +2656,13 @@
         <v>589239</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,13 +2677,13 @@
         <v>403254</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H30" s="7">
         <v>556</v>
@@ -2692,13 +2692,13 @@
         <v>410079</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M30" s="7">
         <v>932</v>
@@ -2707,13 +2707,13 @@
         <v>813333</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,7 +2769,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2781,13 +2781,13 @@
         <v>4335</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="H32" s="7">
         <v>12</v>
@@ -2796,13 +2796,13 @@
         <v>10344</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M32" s="7">
         <v>17</v>
@@ -2811,10 +2811,10 @@
         <v>14679</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>210</v>
@@ -2990,10 +2990,10 @@
         <v>229</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H36" s="7">
         <v>130</v>
@@ -3002,13 +3002,13 @@
         <v>87091</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M36" s="7">
         <v>192</v>
@@ -3017,13 +3017,13 @@
         <v>134013</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,7 +3086,7 @@
         <v>2349</v>
       </c>
       <c r="D38" s="7">
-        <v>2424953</v>
+        <v>2424954</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>246</v>
@@ -3116,7 +3116,7 @@
         <v>5694</v>
       </c>
       <c r="N38" s="7">
-        <v>4857971</v>
+        <v>4857970</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>252</v>
@@ -3137,7 +3137,7 @@
         <v>3305</v>
       </c>
       <c r="D39" s="7">
-        <v>3284124</v>
+        <v>3284125</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>40</v>
@@ -3167,7 +3167,7 @@
         <v>8513</v>
       </c>
       <c r="N39" s="7">
-        <v>6980195</v>
+        <v>6980194</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>

--- a/data/trans_orig/P33_1_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22BFF39F-042F-42C9-A006-64FAFF7D308E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C507113-C008-4BE1-94C0-DE17DBEFEC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0D9262B0-5A9A-4FC4-9FA9-EE262D771A55}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A1BDE9FF-56B7-492B-A420-0053FF4E613A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="903">
   <si>
     <t>Sueño recomendado (Sí/Más/Menos) en 2007 (Tasa respuesta: 98,92%)</t>
   </si>
@@ -815,7 +815,82 @@
     <t>Sueño recomendado (Sí/Más/Menos) en 2012 (Tasa respuesta: 99,68%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
   </si>
   <si>
     <t>6,16%</t>
@@ -968,1726 +1043,1711 @@
     <t>72,58%</t>
   </si>
   <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>Sueño recomendado (Sí/Más/Menos) en 2016 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>Sueño recomendado (Sí/Más/Menos) en 2023 (Tasa respuesta: 97,37%)</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
   </si>
   <si>
     <t>67,44%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>Sueño recomendado (Sí/Más/Menos) en 2016 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>Sueño recomendado (Sí/Más/Menos) en 2023 (Tasa respuesta: 97,37%)</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
   </si>
   <si>
     <t>24,71%</t>
   </si>
   <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
   </si>
 </sst>
 </file>
@@ -3099,7 +3159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E01CBDB-5C3B-42D3-BAB9-7E272D3D6E67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113EB98B-24C8-42C1-99F0-281F13DDD544}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3764,7 +3824,7 @@
         <v>532</v>
       </c>
       <c r="N14" s="7">
-        <v>537691</v>
+        <v>537692</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>92</v>
@@ -3815,7 +3875,7 @@
         <v>636</v>
       </c>
       <c r="N15" s="7">
-        <v>645448</v>
+        <v>645449</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>38</v>
@@ -5089,7 +5149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84F75F0-0278-461B-82E3-85FA4E9D66D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC92A2A4-D36F-447F-9D88-1D50491754E0}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5207,43 +5267,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D4" s="7">
+        <v>15273</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>258</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="I4" s="7">
+        <v>14061</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>258</v>
+        <v>131</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="N4" s="7">
+        <v>29334</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5252,43 +5318,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>59</v>
+      </c>
+      <c r="D5" s="7">
+        <v>61805</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="I5" s="7">
+        <v>88597</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>138</v>
+      </c>
+      <c r="N5" s="7">
+        <v>150402</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5297,43 +5369,49 @@
         <v>28</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>206</v>
+      </c>
+      <c r="D6" s="7">
+        <v>216352</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>163</v>
+      </c>
+      <c r="I6" s="7">
+        <v>183605</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>369</v>
+      </c>
+      <c r="N6" s="7">
+        <v>399957</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,43 +5420,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>281</v>
+      </c>
+      <c r="D7" s="7">
+        <v>293430</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>258</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>258</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>258</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>255</v>
+      </c>
+      <c r="I7" s="7">
+        <v>286263</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>258</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>258</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>258</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>536</v>
+      </c>
+      <c r="N7" s="7">
+        <v>579693</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5395,13 +5479,13 @@
         <v>30947</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="H8" s="7">
         <v>31</v>
@@ -5413,10 +5497,10 @@
         <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="M8" s="7">
         <v>59</v>
@@ -5425,13 +5509,13 @@
         <v>67089</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5446,13 +5530,13 @@
         <v>108513</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="H9" s="7">
         <v>135</v>
@@ -5461,13 +5545,13 @@
         <v>148150</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="M9" s="7">
         <v>233</v>
@@ -5476,13 +5560,13 @@
         <v>256663</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5497,10 +5581,10 @@
         <v>362993</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>58</v>
@@ -5512,13 +5596,13 @@
         <v>339472</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="M10" s="7">
         <v>657</v>
@@ -5527,13 +5611,13 @@
         <v>702465</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5601,13 +5685,13 @@
         <v>31247</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="H12" s="7">
         <v>22</v>
@@ -5619,10 +5703,10 @@
         <v>20</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="M12" s="7">
         <v>50</v>
@@ -5631,13 +5715,13 @@
         <v>54600</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,13 +5736,13 @@
         <v>65232</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="H13" s="7">
         <v>84</v>
@@ -5667,13 +5751,13 @@
         <v>87459</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="M13" s="7">
         <v>149</v>
@@ -5682,13 +5766,13 @@
         <v>152691</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,13 +5787,13 @@
         <v>224562</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="H14" s="7">
         <v>211</v>
@@ -5718,10 +5802,10 @@
         <v>230208</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>228</v>
@@ -5733,13 +5817,13 @@
         <v>454770</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5801,49 +5885,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>14</v>
+      </c>
+      <c r="D16" s="7">
+        <v>15635</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H16" s="7">
+        <v>16</v>
+      </c>
+      <c r="I16" s="7">
+        <v>16427</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="M16" s="7">
         <v>30</v>
       </c>
-      <c r="D16" s="7">
-        <v>30908</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H16" s="7">
-        <v>29</v>
-      </c>
-      <c r="I16" s="7">
-        <v>30488</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="M16" s="7">
-        <v>59</v>
-      </c>
       <c r="N16" s="7">
-        <v>61396</v>
+        <v>32062</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5852,49 +5936,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="D17" s="7">
-        <v>165772</v>
+        <v>103967</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>316</v>
+        <v>138</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="H17" s="7">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="I17" s="7">
-        <v>245005</v>
+        <v>156408</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="M17" s="7">
-        <v>381</v>
+        <v>243</v>
       </c>
       <c r="N17" s="7">
-        <v>410777</v>
+        <v>260375</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5903,49 +5987,49 @@
         <v>28</v>
       </c>
       <c r="C18" s="7">
-        <v>442</v>
+        <v>236</v>
       </c>
       <c r="D18" s="7">
-        <v>470732</v>
+        <v>254379</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="H18" s="7">
-        <v>368</v>
+        <v>205</v>
       </c>
       <c r="I18" s="7">
-        <v>398549</v>
+        <v>214945</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>305</v>
+        <v>355</v>
       </c>
       <c r="M18" s="7">
-        <v>810</v>
+        <v>441</v>
       </c>
       <c r="N18" s="7">
-        <v>869281</v>
+        <v>469324</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5954,10 +6038,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>625</v>
+        <v>344</v>
       </c>
       <c r="D19" s="7">
-        <v>667412</v>
+        <v>373982</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>38</v>
@@ -5969,10 +6053,10 @@
         <v>38</v>
       </c>
       <c r="H19" s="7">
-        <v>625</v>
+        <v>370</v>
       </c>
       <c r="I19" s="7">
-        <v>674042</v>
+        <v>387779</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>38</v>
@@ -5984,10 +6068,10 @@
         <v>38</v>
       </c>
       <c r="M19" s="7">
-        <v>1250</v>
+        <v>714</v>
       </c>
       <c r="N19" s="7">
-        <v>1341454</v>
+        <v>761761</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>38</v>
@@ -6013,13 +6097,13 @@
         <v>13183</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -6028,13 +6112,13 @@
         <v>12085</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="M20" s="7">
         <v>24</v>
@@ -6043,13 +6127,13 @@
         <v>25268</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6064,13 +6148,13 @@
         <v>53620</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="H21" s="7">
         <v>71</v>
@@ -6079,13 +6163,13 @@
         <v>75991</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="M21" s="7">
         <v>121</v>
@@ -6094,13 +6178,13 @@
         <v>129610</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6115,13 +6199,13 @@
         <v>145815</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="H22" s="7">
         <v>128</v>
@@ -6130,13 +6214,13 @@
         <v>130625</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="M22" s="7">
         <v>262</v>
@@ -6145,13 +6229,13 @@
         <v>276440</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6219,10 +6303,10 @@
         <v>16438</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>212</v>
@@ -6237,10 +6321,10 @@
         <v>233</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="M24" s="7">
         <v>28</v>
@@ -6249,13 +6333,13 @@
         <v>28619</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6270,13 +6354,13 @@
         <v>52244</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="H25" s="7">
         <v>65</v>
@@ -6285,13 +6369,13 @@
         <v>67685</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="M25" s="7">
         <v>116</v>
@@ -6300,13 +6384,13 @@
         <v>119928</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6321,13 +6405,13 @@
         <v>205299</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="H26" s="7">
         <v>192</v>
@@ -6336,13 +6420,13 @@
         <v>200165</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>378</v>
+        <v>404</v>
       </c>
       <c r="M26" s="7">
         <v>386</v>
@@ -6351,13 +6435,13 @@
         <v>405465</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6425,13 +6509,13 @@
         <v>24369</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="H28" s="7">
         <v>25</v>
@@ -6440,10 +6524,10 @@
         <v>28728</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>385</v>
+        <v>411</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>17</v>
@@ -6455,13 +6539,13 @@
         <v>53097</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6476,13 +6560,13 @@
         <v>115756</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="H29" s="7">
         <v>161</v>
@@ -6491,13 +6575,13 @@
         <v>171668</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="M29" s="7">
         <v>272</v>
@@ -6506,13 +6590,13 @@
         <v>287424</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,13 +6611,13 @@
         <v>519752</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="H30" s="7">
         <v>449</v>
@@ -6542,13 +6626,13 @@
         <v>492196</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="M30" s="7">
         <v>932</v>
@@ -6557,13 +6641,13 @@
         <v>1011949</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6631,13 +6715,13 @@
         <v>46344</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="H32" s="7">
         <v>35</v>
@@ -6646,13 +6730,13 @@
         <v>38106</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="M32" s="7">
         <v>76</v>
@@ -6661,13 +6745,13 @@
         <v>84450</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>385</v>
+        <v>411</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>413</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6682,13 +6766,13 @@
         <v>129946</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="H33" s="7">
         <v>160</v>
@@ -6697,13 +6781,13 @@
         <v>176721</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="M33" s="7">
         <v>280</v>
@@ -6712,13 +6796,13 @@
         <v>306667</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,10 +6817,10 @@
         <v>599887</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>60</v>
@@ -6748,13 +6832,13 @@
         <v>603981</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="M34" s="7">
         <v>1110</v>
@@ -6763,13 +6847,13 @@
         <v>1203868</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>427</v>
+        <v>452</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6840,10 +6924,10 @@
         <v>48</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>429</v>
+        <v>454</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>430</v>
+        <v>455</v>
       </c>
       <c r="H36" s="7">
         <v>166</v>
@@ -6855,10 +6939,10 @@
         <v>182</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>431</v>
+        <v>456</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="M36" s="7">
         <v>343</v>
@@ -6867,13 +6951,13 @@
         <v>374519</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>434</v>
+        <v>459</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>435</v>
+        <v>341</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6888,13 +6972,13 @@
         <v>691083</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="H37" s="7">
         <v>904</v>
@@ -6903,13 +6987,13 @@
         <v>972678</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
       <c r="M37" s="7">
         <v>1552</v>
@@ -6918,13 +7002,13 @@
         <v>1663760</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6939,13 +7023,13 @@
         <v>2529041</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>446</v>
+        <v>470</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="H38" s="7">
         <v>2219</v>
@@ -6954,13 +7038,13 @@
         <v>2395197</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>448</v>
+        <v>472</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>449</v>
+        <v>473</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="M38" s="7">
         <v>4591</v>
@@ -6969,13 +7053,13 @@
         <v>4924238</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7017,7 +7101,7 @@
         <v>6486</v>
       </c>
       <c r="N39" s="7">
-        <v>6962518</v>
+        <v>6962517</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>38</v>
@@ -7055,7 +7139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0077B978-D0C3-43D4-B4ED-49D0893F29FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B3D9CC-6AA3-40DF-A607-225C92D53884}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7072,7 +7156,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7179,13 +7263,13 @@
         <v>13912</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -7194,13 +7278,13 @@
         <v>13310</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -7212,10 +7296,10 @@
         <v>43</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>461</v>
+        <v>485</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7230,13 +7314,13 @@
         <v>81663</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="H5" s="7">
         <v>88</v>
@@ -7245,13 +7329,13 @@
         <v>90251</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>465</v>
+        <v>489</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="M5" s="7">
         <v>160</v>
@@ -7260,13 +7344,13 @@
         <v>171914</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7281,13 +7365,13 @@
         <v>196599</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="H6" s="7">
         <v>171</v>
@@ -7296,13 +7380,13 @@
         <v>179921</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>476</v>
+        <v>500</v>
       </c>
       <c r="M6" s="7">
         <v>350</v>
@@ -7311,13 +7395,13 @@
         <v>376520</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7388,10 +7472,10 @@
         <v>234</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -7400,13 +7484,13 @@
         <v>18256</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>483</v>
+        <v>507</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="M8" s="7">
         <v>44</v>
@@ -7415,13 +7499,13 @@
         <v>44029</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>485</v>
+        <v>509</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>487</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7436,13 +7520,13 @@
         <v>106585</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="H9" s="7">
         <v>152</v>
@@ -7451,13 +7535,13 @@
         <v>174530</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="M9" s="7">
         <v>254</v>
@@ -7466,13 +7550,13 @@
         <v>281115</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7487,13 +7571,13 @@
         <v>370217</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>497</v>
+        <v>521</v>
       </c>
       <c r="H10" s="7">
         <v>315</v>
@@ -7502,13 +7586,13 @@
         <v>330298</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>498</v>
+        <v>522</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>448</v>
+        <v>472</v>
       </c>
       <c r="M10" s="7">
         <v>661</v>
@@ -7517,13 +7601,13 @@
         <v>700515</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7591,13 +7675,13 @@
         <v>3220</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>504</v>
+        <v>528</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -7606,13 +7690,13 @@
         <v>8963</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="M12" s="7">
         <v>13</v>
@@ -7624,10 +7708,10 @@
         <v>155</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>510</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7642,13 +7726,13 @@
         <v>37628</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>512</v>
+        <v>536</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>513</v>
+        <v>537</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -7657,13 +7741,13 @@
         <v>63887</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="M13" s="7">
         <v>100</v>
@@ -7672,13 +7756,13 @@
         <v>101515</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>517</v>
+        <v>541</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>519</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7696,10 +7780,10 @@
         <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>520</v>
+        <v>544</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>521</v>
+        <v>545</v>
       </c>
       <c r="H14" s="7">
         <v>262</v>
@@ -7708,13 +7792,13 @@
         <v>263459</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>523</v>
+        <v>547</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="M14" s="7">
         <v>554</v>
@@ -7723,13 +7807,13 @@
         <v>541176</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7797,13 +7881,13 @@
         <v>19158</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>76</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -7812,13 +7896,13 @@
         <v>23352</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>531</v>
+        <v>555</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>532</v>
+        <v>556</v>
       </c>
       <c r="M16" s="7">
         <v>40</v>
@@ -7827,13 +7911,13 @@
         <v>42511</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>533</v>
+        <v>557</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>534</v>
+        <v>558</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>535</v>
+        <v>559</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7848,13 +7932,13 @@
         <v>107220</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>537</v>
+        <v>561</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>538</v>
+        <v>562</v>
       </c>
       <c r="H17" s="7">
         <v>127</v>
@@ -7863,13 +7947,13 @@
         <v>136332</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>539</v>
+        <v>563</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="M17" s="7">
         <v>228</v>
@@ -7878,13 +7962,13 @@
         <v>243552</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>543</v>
+        <v>567</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>544</v>
+        <v>568</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7899,13 +7983,13 @@
         <v>242773</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>545</v>
+        <v>569</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>546</v>
+        <v>570</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="H18" s="7">
         <v>206</v>
@@ -7914,28 +7998,28 @@
         <v>222277</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>548</v>
+        <v>572</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="M18" s="7">
         <v>439</v>
       </c>
       <c r="N18" s="7">
-        <v>465051</v>
+        <v>465050</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>552</v>
+        <v>576</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7977,7 +8061,7 @@
         <v>707</v>
       </c>
       <c r="N19" s="7">
-        <v>751114</v>
+        <v>751113</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>38</v>
@@ -8006,10 +8090,10 @@
         <v>158</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -8018,13 +8102,13 @@
         <v>7379</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>556</v>
+        <v>580</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>557</v>
+        <v>581</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>558</v>
+        <v>582</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -8033,13 +8117,13 @@
         <v>13035</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>560</v>
+        <v>584</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8054,13 +8138,13 @@
         <v>10586</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>561</v>
+        <v>585</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>562</v>
+        <v>586</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>563</v>
+        <v>587</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -8069,13 +8153,13 @@
         <v>10931</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>564</v>
+        <v>588</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>565</v>
+        <v>589</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="M21" s="7">
         <v>21</v>
@@ -8084,13 +8168,13 @@
         <v>21517</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>561</v>
+        <v>585</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>567</v>
+        <v>591</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8105,13 +8189,13 @@
         <v>194979</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>569</v>
+        <v>593</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>570</v>
+        <v>594</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>571</v>
+        <v>595</v>
       </c>
       <c r="H22" s="7">
         <v>205</v>
@@ -8120,13 +8204,13 @@
         <v>200278</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>572</v>
+        <v>596</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>573</v>
+        <v>597</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>574</v>
+        <v>598</v>
       </c>
       <c r="M22" s="7">
         <v>401</v>
@@ -8135,13 +8219,13 @@
         <v>395256</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>575</v>
+        <v>599</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>576</v>
+        <v>600</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>577</v>
+        <v>601</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8215,7 +8299,7 @@
         <v>183</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>578</v>
+        <v>602</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -8224,13 +8308,13 @@
         <v>9460</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="M24" s="7">
         <v>20</v>
@@ -8242,10 +8326,10 @@
         <v>235</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>582</v>
+        <v>606</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8260,13 +8344,13 @@
         <v>41114</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>584</v>
+        <v>608</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>586</v>
+        <v>610</v>
       </c>
       <c r="H25" s="7">
         <v>68</v>
@@ -8275,13 +8359,13 @@
         <v>74367</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>589</v>
+        <v>613</v>
       </c>
       <c r="M25" s="7">
         <v>109</v>
@@ -8290,13 +8374,13 @@
         <v>115481</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>590</v>
+        <v>614</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>591</v>
+        <v>615</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>592</v>
+        <v>616</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8311,13 +8395,13 @@
         <v>210559</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>593</v>
+        <v>617</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>594</v>
+        <v>618</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>595</v>
+        <v>619</v>
       </c>
       <c r="H26" s="7">
         <v>186</v>
@@ -8326,13 +8410,13 @@
         <v>188323</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>596</v>
+        <v>620</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>597</v>
+        <v>621</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>598</v>
+        <v>622</v>
       </c>
       <c r="M26" s="7">
         <v>392</v>
@@ -8341,13 +8425,13 @@
         <v>398881</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>599</v>
+        <v>623</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>600</v>
+        <v>624</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>601</v>
+        <v>625</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8415,13 +8499,13 @@
         <v>61675</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>602</v>
+        <v>626</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>603</v>
+        <v>627</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>604</v>
+        <v>628</v>
       </c>
       <c r="H28" s="7">
         <v>53</v>
@@ -8430,13 +8514,13 @@
         <v>59561</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>605</v>
+        <v>629</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>606</v>
+        <v>630</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>607</v>
+        <v>631</v>
       </c>
       <c r="M28" s="7">
         <v>111</v>
@@ -8445,13 +8529,13 @@
         <v>121236</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>608</v>
+        <v>632</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>609</v>
+        <v>633</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>610</v>
+        <v>634</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8466,13 +8550,13 @@
         <v>114553</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>611</v>
+        <v>635</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>612</v>
+        <v>636</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>613</v>
+        <v>637</v>
       </c>
       <c r="H29" s="7">
         <v>136</v>
@@ -8481,13 +8565,13 @@
         <v>149665</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>614</v>
+        <v>638</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>616</v>
+        <v>640</v>
       </c>
       <c r="M29" s="7">
         <v>236</v>
@@ -8496,10 +8580,10 @@
         <v>264218</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>617</v>
+        <v>641</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>611</v>
+        <v>635</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>136</v>
@@ -8514,16 +8598,16 @@
         <v>418</v>
       </c>
       <c r="D30" s="7">
-        <v>475964</v>
+        <v>475963</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>618</v>
+        <v>642</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>619</v>
+        <v>643</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>620</v>
+        <v>644</v>
       </c>
       <c r="H30" s="7">
         <v>455</v>
@@ -8532,13 +8616,13 @@
         <v>480115</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>621</v>
+        <v>645</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>622</v>
+        <v>646</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>623</v>
+        <v>647</v>
       </c>
       <c r="M30" s="7">
         <v>873</v>
@@ -8547,13 +8631,13 @@
         <v>956078</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>624</v>
+        <v>648</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>625</v>
+        <v>649</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>626</v>
+        <v>650</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8565,7 +8649,7 @@
         <v>576</v>
       </c>
       <c r="D31" s="7">
-        <v>652192</v>
+        <v>652191</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>38</v>
@@ -8621,13 +8705,13 @@
         <v>43176</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>627</v>
+        <v>651</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>628</v>
+        <v>334</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>629</v>
+        <v>652</v>
       </c>
       <c r="H32" s="7">
         <v>18</v>
@@ -8636,13 +8720,13 @@
         <v>23090</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>630</v>
+        <v>653</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>631</v>
+        <v>654</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>632</v>
+        <v>655</v>
       </c>
       <c r="M32" s="7">
         <v>63</v>
@@ -8651,13 +8735,13 @@
         <v>66266</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>633</v>
+        <v>656</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>47</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>634</v>
+        <v>657</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8672,13 +8756,13 @@
         <v>103252</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>635</v>
+        <v>658</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>636</v>
+        <v>659</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>637</v>
+        <v>660</v>
       </c>
       <c r="H33" s="7">
         <v>128</v>
@@ -8687,13 +8771,13 @@
         <v>143570</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>638</v>
+        <v>661</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>639</v>
+        <v>662</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>640</v>
+        <v>663</v>
       </c>
       <c r="M33" s="7">
         <v>225</v>
@@ -8702,13 +8786,13 @@
         <v>246822</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>641</v>
+        <v>664</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>642</v>
+        <v>665</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>643</v>
+        <v>666</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8723,13 +8807,13 @@
         <v>632155</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>644</v>
+        <v>667</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>645</v>
+        <v>668</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>646</v>
+        <v>669</v>
       </c>
       <c r="H34" s="7">
         <v>608</v>
@@ -8738,13 +8822,13 @@
         <v>658427</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>647</v>
+        <v>670</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>648</v>
+        <v>671</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>649</v>
+        <v>672</v>
       </c>
       <c r="M34" s="7">
         <v>1216</v>
@@ -8756,10 +8840,10 @@
         <v>36</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>650</v>
+        <v>673</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>651</v>
+        <v>674</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8827,7 +8911,7 @@
         <v>184020</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>652</v>
+        <v>675</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>239</v>
@@ -8845,10 +8929,10 @@
         <v>237</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="M36" s="7">
         <v>331</v>
@@ -8857,13 +8941,13 @@
         <v>347391</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>653</v>
+        <v>676</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>654</v>
+        <v>677</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>627</v>
+        <v>651</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8878,13 +8962,13 @@
         <v>602601</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>655</v>
+        <v>678</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>656</v>
+        <v>679</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>657</v>
+        <v>680</v>
       </c>
       <c r="H37" s="7">
         <v>771</v>
@@ -8893,13 +8977,13 @@
         <v>843533</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>658</v>
+        <v>681</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>659</v>
+        <v>682</v>
       </c>
       <c r="M37" s="7">
         <v>1333</v>
@@ -8908,10 +8992,10 @@
         <v>1446135</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>660</v>
+        <v>683</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>56</v>
@@ -8929,13 +9013,13 @@
         <v>2600963</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>661</v>
+        <v>684</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>662</v>
+        <v>685</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>663</v>
+        <v>686</v>
       </c>
       <c r="H38" s="7">
         <v>2408</v>
@@ -8944,13 +9028,13 @@
         <v>2523098</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>664</v>
+        <v>280</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>665</v>
+        <v>687</v>
       </c>
       <c r="M38" s="7">
         <v>4886</v>
@@ -8959,13 +9043,13 @@
         <v>5124061</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>666</v>
+        <v>688</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>667</v>
+        <v>689</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>668</v>
+        <v>690</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9045,7 +9129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9407707C-0A3D-4B0D-8C80-8E1428450F59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11BBC3E8-7B84-473A-AE88-43C4EF806FF7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9062,7 +9146,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>669</v>
+        <v>691</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9166,46 +9250,46 @@
         <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>6750</v>
+        <v>7352</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>670</v>
+        <v>606</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>671</v>
+        <v>692</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>564</v>
+        <v>693</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>6236</v>
+        <v>6703</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>672</v>
+        <v>694</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>673</v>
+        <v>531</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>628</v>
+        <v>695</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
       </c>
       <c r="N4" s="7">
-        <v>12987</v>
+        <v>14055</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>674</v>
+        <v>696</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>675</v>
+        <v>697</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>676</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9217,46 +9301,46 @@
         <v>100</v>
       </c>
       <c r="D5" s="7">
-        <v>77287</v>
+        <v>89531</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>677</v>
+        <v>698</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>678</v>
+        <v>699</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>679</v>
+        <v>700</v>
       </c>
       <c r="H5" s="7">
         <v>186</v>
       </c>
       <c r="I5" s="7">
-        <v>90570</v>
+        <v>94689</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>491</v>
+        <v>701</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>680</v>
+        <v>702</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>681</v>
+        <v>703</v>
       </c>
       <c r="M5" s="7">
         <v>286</v>
       </c>
       <c r="N5" s="7">
-        <v>167856</v>
+        <v>184219</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>682</v>
+        <v>704</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>683</v>
+        <v>705</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>684</v>
+        <v>706</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9268,46 +9352,46 @@
         <v>221</v>
       </c>
       <c r="D6" s="7">
-        <v>176261</v>
+        <v>214561</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>685</v>
+        <v>707</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>686</v>
+        <v>708</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>687</v>
+        <v>618</v>
       </c>
       <c r="H6" s="7">
         <v>341</v>
       </c>
       <c r="I6" s="7">
-        <v>174597</v>
+        <v>188243</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>688</v>
+        <v>709</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>689</v>
+        <v>710</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>690</v>
+        <v>711</v>
       </c>
       <c r="M6" s="7">
         <v>562</v>
       </c>
       <c r="N6" s="7">
-        <v>350857</v>
+        <v>402803</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>691</v>
+        <v>712</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>692</v>
+        <v>713</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>693</v>
+        <v>714</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9319,7 +9403,7 @@
         <v>331</v>
       </c>
       <c r="D7" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>38</v>
@@ -9334,7 +9418,7 @@
         <v>538</v>
       </c>
       <c r="I7" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>38</v>
@@ -9349,7 +9433,7 @@
         <v>869</v>
       </c>
       <c r="N7" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -9372,46 +9456,46 @@
         <v>15</v>
       </c>
       <c r="D8" s="7">
-        <v>13286</v>
+        <v>12391</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>694</v>
+        <v>715</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>74</v>
+        <v>716</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>389</v>
+        <v>717</v>
       </c>
       <c r="H8" s="7">
         <v>40</v>
       </c>
       <c r="I8" s="7">
-        <v>30123</v>
+        <v>27568</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>695</v>
+        <v>154</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>160</v>
+        <v>718</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>696</v>
+        <v>719</v>
       </c>
       <c r="M8" s="7">
         <v>55</v>
       </c>
       <c r="N8" s="7">
-        <v>43409</v>
+        <v>39959</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>697</v>
+        <v>720</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>698</v>
+        <v>721</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>699</v>
+        <v>722</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9423,46 +9507,46 @@
         <v>80</v>
       </c>
       <c r="D9" s="7">
-        <v>107210</v>
+        <v>105236</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>700</v>
+        <v>723</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>139</v>
+        <v>724</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>701</v>
+        <v>725</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
       </c>
       <c r="I9" s="7">
-        <v>117755</v>
+        <v>109173</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>702</v>
+        <v>726</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>703</v>
+        <v>727</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>704</v>
+        <v>728</v>
       </c>
       <c r="M9" s="7">
         <v>243</v>
       </c>
       <c r="N9" s="7">
-        <v>224965</v>
+        <v>214409</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>705</v>
+        <v>729</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>706</v>
+        <v>730</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>707</v>
+        <v>731</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9474,46 +9558,46 @@
         <v>227</v>
       </c>
       <c r="D10" s="7">
-        <v>305766</v>
+        <v>305594</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>708</v>
+        <v>732</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>709</v>
+        <v>447</v>
       </c>
       <c r="H10" s="7">
         <v>417</v>
       </c>
       <c r="I10" s="7">
-        <v>328640</v>
+        <v>305678</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>710</v>
+        <v>733</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>711</v>
+        <v>734</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>712</v>
+        <v>735</v>
       </c>
       <c r="M10" s="7">
         <v>644</v>
       </c>
       <c r="N10" s="7">
-        <v>634407</v>
+        <v>611272</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>713</v>
+        <v>736</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>714</v>
+        <v>737</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>715</v>
+        <v>738</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9525,7 +9609,7 @@
         <v>322</v>
       </c>
       <c r="D11" s="7">
-        <v>426262</v>
+        <v>423221</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>38</v>
@@ -9540,7 +9624,7 @@
         <v>620</v>
       </c>
       <c r="I11" s="7">
-        <v>476518</v>
+        <v>442419</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>38</v>
@@ -9555,7 +9639,7 @@
         <v>942</v>
       </c>
       <c r="N11" s="7">
-        <v>902780</v>
+        <v>865640</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>38</v>
@@ -9578,46 +9662,46 @@
         <v>9</v>
       </c>
       <c r="D12" s="7">
-        <v>5972</v>
+        <v>5639</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>716</v>
+        <v>739</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>717</v>
+        <v>740</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>718</v>
+        <v>741</v>
       </c>
       <c r="H12" s="7">
         <v>11</v>
       </c>
       <c r="I12" s="7">
-        <v>8077</v>
+        <v>7371</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>719</v>
+        <v>742</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>720</v>
+        <v>69</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>633</v>
+        <v>235</v>
       </c>
       <c r="M12" s="7">
         <v>20</v>
       </c>
       <c r="N12" s="7">
-        <v>14048</v>
+        <v>13010</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>722</v>
+        <v>744</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>723</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9629,46 +9713,46 @@
         <v>96</v>
       </c>
       <c r="D13" s="7">
-        <v>78987</v>
+        <v>76304</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>702</v>
+        <v>745</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>139</v>
+        <v>746</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>724</v>
+        <v>747</v>
       </c>
       <c r="H13" s="7">
         <v>174</v>
       </c>
       <c r="I13" s="7">
-        <v>109301</v>
+        <v>101573</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>725</v>
+        <v>748</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>726</v>
+        <v>366</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>727</v>
+        <v>749</v>
       </c>
       <c r="M13" s="7">
         <v>270</v>
       </c>
       <c r="N13" s="7">
-        <v>188288</v>
+        <v>177878</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>728</v>
+        <v>750</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>729</v>
+        <v>751</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>730</v>
+        <v>752</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9680,46 +9764,46 @@
         <v>252</v>
       </c>
       <c r="D14" s="7">
-        <v>234754</v>
+        <v>231649</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>731</v>
+        <v>753</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>732</v>
+        <v>754</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>733</v>
+        <v>755</v>
       </c>
       <c r="H14" s="7">
         <v>344</v>
       </c>
       <c r="I14" s="7">
-        <v>252219</v>
+        <v>236741</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>734</v>
+        <v>756</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>735</v>
+        <v>757</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>736</v>
+        <v>59</v>
       </c>
       <c r="M14" s="7">
         <v>596</v>
       </c>
       <c r="N14" s="7">
-        <v>486972</v>
+        <v>468390</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>737</v>
+        <v>758</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>738</v>
+        <v>759</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>739</v>
+        <v>760</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9731,7 +9815,7 @@
         <v>357</v>
       </c>
       <c r="D15" s="7">
-        <v>319712</v>
+        <v>313592</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>38</v>
@@ -9746,7 +9830,7 @@
         <v>529</v>
       </c>
       <c r="I15" s="7">
-        <v>369597</v>
+        <v>345686</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>38</v>
@@ -9761,7 +9845,7 @@
         <v>886</v>
       </c>
       <c r="N15" s="7">
-        <v>689308</v>
+        <v>659278</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>38</v>
@@ -9784,46 +9868,46 @@
         <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>5983</v>
+        <v>5676</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>740</v>
+        <v>761</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>741</v>
+        <v>762</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>185</v>
+        <v>763</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
       </c>
       <c r="I16" s="7">
-        <v>17214</v>
+        <v>16002</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>742</v>
+        <v>389</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>743</v>
+        <v>764</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>744</v>
+        <v>765</v>
       </c>
       <c r="M16" s="7">
         <v>39</v>
       </c>
       <c r="N16" s="7">
-        <v>23196</v>
+        <v>21678</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>745</v>
+        <v>766</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>746</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>408</v>
+        <v>767</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9835,46 +9919,46 @@
         <v>78</v>
       </c>
       <c r="D17" s="7">
-        <v>79071</v>
+        <v>75914</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>490</v>
+        <v>768</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>747</v>
+        <v>769</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>748</v>
+        <v>770</v>
       </c>
       <c r="H17" s="7">
         <v>213</v>
       </c>
       <c r="I17" s="7">
-        <v>132965</v>
+        <v>123417</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>749</v>
+        <v>771</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>166</v>
+        <v>772</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>750</v>
+        <v>773</v>
       </c>
       <c r="M17" s="7">
         <v>291</v>
       </c>
       <c r="N17" s="7">
-        <v>212036</v>
+        <v>199332</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>751</v>
+        <v>493</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>752</v>
+        <v>774</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>753</v>
+        <v>775</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9886,46 +9970,46 @@
         <v>197</v>
       </c>
       <c r="D18" s="7">
-        <v>231647</v>
+        <v>225655</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>754</v>
+        <v>776</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>755</v>
+        <v>777</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>756</v>
+        <v>277</v>
       </c>
       <c r="H18" s="7">
         <v>320</v>
       </c>
       <c r="I18" s="7">
-        <v>258227</v>
+        <v>317580</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>757</v>
+        <v>778</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>758</v>
+        <v>779</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>759</v>
+        <v>780</v>
       </c>
       <c r="M18" s="7">
         <v>517</v>
       </c>
       <c r="N18" s="7">
-        <v>489874</v>
+        <v>543235</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>760</v>
+        <v>781</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>761</v>
+        <v>782</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>762</v>
+        <v>783</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9937,7 +10021,7 @@
         <v>284</v>
       </c>
       <c r="D19" s="7">
-        <v>316700</v>
+        <v>307246</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>38</v>
@@ -9952,7 +10036,7 @@
         <v>563</v>
       </c>
       <c r="I19" s="7">
-        <v>408406</v>
+        <v>456999</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>38</v>
@@ -9967,7 +10051,7 @@
         <v>847</v>
       </c>
       <c r="N19" s="7">
-        <v>725106</v>
+        <v>764245</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>38</v>
@@ -9993,43 +10077,43 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>763</v>
+        <v>784</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>764</v>
+        <v>785</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>765</v>
+        <v>786</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>1274</v>
+        <v>1138</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>766</v>
+        <v>787</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>767</v>
+        <v>788</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>768</v>
+        <v>789</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>1274</v>
+        <v>1138</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>72</v>
+        <v>790</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>769</v>
+        <v>791</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>770</v>
+        <v>792</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10041,46 +10125,46 @@
         <v>104</v>
       </c>
       <c r="D21" s="7">
-        <v>67665</v>
+        <v>61689</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>771</v>
+        <v>793</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>772</v>
+        <v>794</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>773</v>
+        <v>795</v>
       </c>
       <c r="H21" s="7">
         <v>234</v>
       </c>
       <c r="I21" s="7">
-        <v>102948</v>
+        <v>92939</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>774</v>
+        <v>796</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>775</v>
+        <v>797</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>776</v>
+        <v>798</v>
       </c>
       <c r="M21" s="7">
         <v>338</v>
       </c>
       <c r="N21" s="7">
-        <v>170613</v>
+        <v>154628</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>777</v>
+        <v>799</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>779</v>
+        <v>801</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -10092,46 +10176,46 @@
         <v>175</v>
       </c>
       <c r="D22" s="7">
-        <v>129083</v>
+        <v>117053</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>780</v>
+        <v>802</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>781</v>
+        <v>378</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>782</v>
+        <v>803</v>
       </c>
       <c r="H22" s="7">
         <v>254</v>
       </c>
       <c r="I22" s="7">
-        <v>127330</v>
+        <v>114251</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>783</v>
+        <v>804</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>784</v>
+        <v>805</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>689</v>
+        <v>806</v>
       </c>
       <c r="M22" s="7">
         <v>429</v>
       </c>
       <c r="N22" s="7">
-        <v>256412</v>
+        <v>231304</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>785</v>
+        <v>807</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>786</v>
+        <v>808</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>787</v>
+        <v>809</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10143,7 +10227,7 @@
         <v>279</v>
       </c>
       <c r="D23" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>38</v>
@@ -10158,7 +10242,7 @@
         <v>491</v>
       </c>
       <c r="I23" s="7">
-        <v>231552</v>
+        <v>208328</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>38</v>
@@ -10173,7 +10257,7 @@
         <v>770</v>
       </c>
       <c r="N23" s="7">
-        <v>428299</v>
+        <v>387070</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>38</v>
@@ -10196,46 +10280,46 @@
         <v>2</v>
       </c>
       <c r="D24" s="7">
-        <v>1013</v>
+        <v>946</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>788</v>
+        <v>810</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>763</v>
+        <v>784</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>789</v>
+        <v>811</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
       </c>
       <c r="I24" s="7">
-        <v>1332</v>
+        <v>1220</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>790</v>
+        <v>812</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>791</v>
+        <v>813</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>792</v>
+        <v>814</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
       </c>
       <c r="N24" s="7">
-        <v>2345</v>
+        <v>2166</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>793</v>
+        <v>815</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>794</v>
+        <v>816</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>770</v>
+        <v>792</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10247,46 +10331,46 @@
         <v>102</v>
       </c>
       <c r="D25" s="7">
-        <v>64111</v>
+        <v>61479</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>795</v>
+        <v>817</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>796</v>
+        <v>818</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
       <c r="H25" s="7">
         <v>188</v>
       </c>
       <c r="I25" s="7">
-        <v>94721</v>
+        <v>88410</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>798</v>
+        <v>819</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>799</v>
+        <v>820</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>800</v>
+        <v>821</v>
       </c>
       <c r="M25" s="7">
         <v>290</v>
       </c>
       <c r="N25" s="7">
-        <v>158832</v>
+        <v>149888</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>801</v>
+        <v>822</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>802</v>
+        <v>823</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>803</v>
+        <v>824</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10298,46 +10382,46 @@
         <v>267</v>
       </c>
       <c r="D26" s="7">
-        <v>212099</v>
+        <v>207211</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>804</v>
+        <v>825</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>805</v>
+        <v>826</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>806</v>
+        <v>827</v>
       </c>
       <c r="H26" s="7">
         <v>268</v>
       </c>
       <c r="I26" s="7">
-        <v>179193</v>
+        <v>167077</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>807</v>
+        <v>828</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>808</v>
+        <v>829</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>809</v>
+        <v>830</v>
       </c>
       <c r="M26" s="7">
         <v>535</v>
       </c>
       <c r="N26" s="7">
-        <v>391292</v>
+        <v>374289</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>810</v>
+        <v>831</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>332</v>
+        <v>832</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>327</v>
+        <v>833</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10349,7 +10433,7 @@
         <v>371</v>
       </c>
       <c r="D27" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>38</v>
@@ -10364,7 +10448,7 @@
         <v>459</v>
       </c>
       <c r="I27" s="7">
-        <v>275246</v>
+        <v>256707</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>38</v>
@@ -10379,7 +10463,7 @@
         <v>830</v>
       </c>
       <c r="N27" s="7">
-        <v>552469</v>
+        <v>526343</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>38</v>
@@ -10402,46 +10486,46 @@
         <v>13</v>
       </c>
       <c r="D28" s="7">
-        <v>10354</v>
+        <v>10011</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>811</v>
+        <v>834</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>75</v>
+        <v>835</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>812</v>
+        <v>836</v>
       </c>
       <c r="H28" s="7">
         <v>23</v>
       </c>
       <c r="I28" s="7">
-        <v>14500</v>
+        <v>12464</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>813</v>
+        <v>837</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>100</v>
+        <v>838</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>694</v>
+        <v>839</v>
       </c>
       <c r="M28" s="7">
         <v>36</v>
       </c>
       <c r="N28" s="7">
-        <v>24855</v>
+        <v>22475</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>814</v>
+        <v>840</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>815</v>
+        <v>835</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>670</v>
+        <v>841</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10453,46 +10537,46 @@
         <v>189</v>
       </c>
       <c r="D29" s="7">
-        <v>183995</v>
+        <v>184097</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>816</v>
+        <v>842</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>817</v>
+        <v>843</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>818</v>
+        <v>844</v>
       </c>
       <c r="H29" s="7">
         <v>341</v>
       </c>
       <c r="I29" s="7">
-        <v>350119</v>
+        <v>427605</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>819</v>
+        <v>845</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>820</v>
+        <v>846</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>821</v>
+        <v>847</v>
       </c>
       <c r="M29" s="7">
         <v>530</v>
       </c>
       <c r="N29" s="7">
-        <v>534115</v>
+        <v>611703</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>822</v>
+        <v>848</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>823</v>
+        <v>849</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>824</v>
+        <v>850</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10504,46 +10588,46 @@
         <v>397</v>
       </c>
       <c r="D30" s="7">
-        <v>433404</v>
+        <v>430171</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>825</v>
+        <v>851</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>826</v>
+        <v>852</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>827</v>
+        <v>735</v>
       </c>
       <c r="H30" s="7">
         <v>585</v>
       </c>
       <c r="I30" s="7">
-        <v>434282</v>
+        <v>404265</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>828</v>
+        <v>853</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>820</v>
+        <v>854</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>829</v>
+        <v>855</v>
       </c>
       <c r="M30" s="7">
         <v>982</v>
       </c>
       <c r="N30" s="7">
-        <v>867687</v>
+        <v>834436</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>830</v>
+        <v>856</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>831</v>
+        <v>857</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>832</v>
+        <v>858</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10555,7 +10639,7 @@
         <v>599</v>
       </c>
       <c r="D31" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>38</v>
@@ -10570,7 +10654,7 @@
         <v>949</v>
       </c>
       <c r="I31" s="7">
-        <v>798902</v>
+        <v>844335</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>38</v>
@@ -10585,7 +10669,7 @@
         <v>1548</v>
       </c>
       <c r="N31" s="7">
-        <v>1426656</v>
+        <v>1468614</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>38</v>
@@ -10608,46 +10692,46 @@
         <v>5</v>
       </c>
       <c r="D32" s="7">
-        <v>4335</v>
+        <v>3630</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>833</v>
+        <v>859</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>834</v>
+        <v>860</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>720</v>
+        <v>100</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
       </c>
       <c r="I32" s="7">
-        <v>12588</v>
+        <v>9141</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>835</v>
+        <v>861</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>836</v>
+        <v>862</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>837</v>
+        <v>696</v>
       </c>
       <c r="M32" s="7">
         <v>18</v>
       </c>
       <c r="N32" s="7">
-        <v>16923</v>
+        <v>12770</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>838</v>
+        <v>863</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>839</v>
+        <v>15</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>840</v>
+        <v>864</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10659,46 +10743,46 @@
         <v>94</v>
       </c>
       <c r="D33" s="7">
-        <v>87539</v>
+        <v>74807</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>841</v>
+        <v>865</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>842</v>
+        <v>603</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>843</v>
+        <v>866</v>
       </c>
       <c r="H33" s="7">
         <v>150</v>
       </c>
       <c r="I33" s="7">
-        <v>109749</v>
+        <v>91582</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>844</v>
+        <v>867</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>845</v>
+        <v>868</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>846</v>
+        <v>869</v>
       </c>
       <c r="M33" s="7">
         <v>244</v>
       </c>
       <c r="N33" s="7">
-        <v>197288</v>
+        <v>166389</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>847</v>
+        <v>19</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>848</v>
+        <v>870</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>849</v>
+        <v>871</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10710,46 +10794,46 @@
         <v>663</v>
       </c>
       <c r="D34" s="7">
-        <v>767554</v>
+        <v>850283</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>850</v>
+        <v>872</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>851</v>
+        <v>873</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>852</v>
+        <v>874</v>
       </c>
       <c r="H34" s="7">
         <v>896</v>
       </c>
       <c r="I34" s="7">
-        <v>742111</v>
+        <v>613619</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>853</v>
+        <v>875</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>854</v>
+        <v>876</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>855</v>
+        <v>877</v>
       </c>
       <c r="M34" s="7">
         <v>1559</v>
       </c>
       <c r="N34" s="7">
-        <v>1509665</v>
+        <v>1463903</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>856</v>
+        <v>878</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>857</v>
+        <v>879</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>858</v>
+        <v>880</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10761,7 +10845,7 @@
         <v>762</v>
       </c>
       <c r="D35" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>38</v>
@@ -10776,7 +10860,7 @@
         <v>1059</v>
       </c>
       <c r="I35" s="7">
-        <v>864447</v>
+        <v>714341</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>38</v>
@@ -10791,7 +10875,7 @@
         <v>1821</v>
       </c>
       <c r="N35" s="7">
-        <v>1723875</v>
+        <v>1643062</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>38</v>
@@ -10814,46 +10898,46 @@
         <v>63</v>
       </c>
       <c r="D36" s="7">
-        <v>47693</v>
+        <v>45644</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>675</v>
+        <v>814</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>859</v>
+        <v>527</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>740</v>
+        <v>881</v>
       </c>
       <c r="H36" s="7">
         <v>134</v>
       </c>
       <c r="I36" s="7">
-        <v>91344</v>
+        <v>81607</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>860</v>
+        <v>882</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>861</v>
+        <v>883</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>559</v>
+        <v>362</v>
       </c>
       <c r="M36" s="7">
         <v>197</v>
       </c>
       <c r="N36" s="7">
-        <v>139037</v>
+        <v>127251</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>862</v>
+        <v>102</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>863</v>
+        <v>884</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>864</v>
+        <v>885</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10865,46 +10949,46 @@
         <v>843</v>
       </c>
       <c r="D37" s="7">
-        <v>745864</v>
+        <v>729058</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>866</v>
+        <v>887</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>867</v>
+        <v>888</v>
       </c>
       <c r="H37" s="7">
         <v>1649</v>
       </c>
       <c r="I37" s="7">
-        <v>1108128</v>
+        <v>1129388</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>868</v>
+        <v>889</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>869</v>
+        <v>890</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>870</v>
+        <v>891</v>
       </c>
       <c r="M37" s="7">
         <v>2492</v>
       </c>
       <c r="N37" s="7">
-        <v>1853992</v>
+        <v>1858446</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>871</v>
+        <v>892</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>872</v>
+        <v>893</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>873</v>
+        <v>894</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10916,46 +11000,46 @@
         <v>2399</v>
       </c>
       <c r="D38" s="7">
-        <v>2490567</v>
+        <v>2582177</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>874</v>
+        <v>895</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>875</v>
+        <v>896</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>876</v>
+        <v>897</v>
       </c>
       <c r="H38" s="7">
         <v>3425</v>
       </c>
       <c r="I38" s="7">
-        <v>2496598</v>
+        <v>2347455</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>877</v>
+        <v>898</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>878</v>
+        <v>899</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>879</v>
+        <v>475</v>
       </c>
       <c r="M38" s="7">
         <v>5824</v>
       </c>
       <c r="N38" s="7">
-        <v>4987166</v>
+        <v>4929632</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>880</v>
+        <v>900</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>881</v>
+        <v>901</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>882</v>
+        <v>902</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10967,7 +11051,7 @@
         <v>3305</v>
       </c>
       <c r="D39" s="7">
-        <v>3284124</v>
+        <v>3356879</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>38</v>
@@ -10982,7 +11066,7 @@
         <v>5208</v>
       </c>
       <c r="I39" s="7">
-        <v>3696070</v>
+        <v>3558450</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>38</v>
@@ -10997,7 +11081,7 @@
         <v>8513</v>
       </c>
       <c r="N39" s="7">
-        <v>6980195</v>
+        <v>6915329</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>38</v>

--- a/data/trans_orig/P33_1_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R2-Provincia-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sueño recomendado (Sí/Más/Menos) en 2007</t>
+          <t>Población según si duerme más, menos o las horas de sueño recomendadas por la Sociedad Española del Sueño en 2007</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4894,7 +4894,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sueño recomendado (Sí/Más/Menos) en 2012</t>
+          <t>Población según si duerme más, menos o las horas de sueño recomendadas por la Sociedad Española del Sueño en 2012</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -9242,7 +9242,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sueño recomendado (Sí/Más/Menos) en 2016</t>
+          <t>Población según si duerme más, menos o las horas de sueño recomendadas por la Sociedad Española del Sueño en 2016</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -13590,7 +13590,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sueño recomendado (Sí/Más/Menos) en 2023</t>
+          <t>Población según si duerme más, menos o las horas de sueño recomendadas por la Sociedad Española del Sueño en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
